--- a/ДМС/Барнаул/Амбулаторная помощь.xlsx
+++ b/ДМС/Барнаул/Амбулаторная помощь.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\50AdmNsk\PycharmProjects\pythonProject\ДМС\Барнаул\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\50GarderDV\Downloads\ДМС\Барнаул\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1C59CA-699C-4BBF-B4DD-C508378A3214}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="800"/>
   </bookViews>
   <sheets>
     <sheet name="Барнаул+" sheetId="6" r:id="rId1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>АМБУЛАТОРНАЯ ПОМОЩЬ</t>
   </si>
@@ -41,12 +40,6 @@
     <t>ГОРОДСКАЯ БОЛЬНИЦА № 5, КГБУЗ</t>
   </si>
   <si>
-    <t>г Барнаул, тракт Змеиногорский, д 75</t>
-  </si>
-  <si>
-    <t>г Барнаул, ул П.С.Кулагина, д 10</t>
-  </si>
-  <si>
     <t>ГОРОДСКАЯ БОЛЬНИЦА №4. Г. БАРНАУЛ КГБУЗ</t>
   </si>
   <si>
@@ -56,12 +49,6 @@
     <t>ИСИДА, ООО</t>
   </si>
   <si>
-    <t>г Барнаул, ул Чкалова, д 89</t>
-  </si>
-  <si>
-    <t>г Барнаул, ул Партизанская, д 132</t>
-  </si>
-  <si>
     <t>КРАЕВАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА, КГБУЗ</t>
   </si>
   <si>
@@ -104,12 +91,6 @@
     <t>http://hospital22.ru</t>
   </si>
   <si>
-    <t>+7 (3852) 26‒84‒94</t>
-  </si>
-  <si>
-    <t>7 (3852) 56‒96‒26</t>
-  </si>
-  <si>
     <t>bgb4.ru</t>
   </si>
   <si>
@@ -142,11 +123,22 @@
   <si>
     <t>+7 (3852) 222‒250</t>
   </si>
+  <si>
+    <t>7 (3852) 26‒84‒94, 7 (3852) 56‒96‒26</t>
+  </si>
+  <si>
+    <t>г Барнаул, тракт Змеиногорский, д 75.
+ул П.С.Кулагина, д 10</t>
+  </si>
+  <si>
+    <t>г Барнаул, ул Партизанская, д 132.
+ул Чкалова, д 89</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -255,8 +247,8 @@
   <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="3" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -414,23 +406,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -466,23 +441,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -658,44 +616,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C15:C16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="4" width="28.5703125" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" customWidth="1"/>
+    <col min="4" max="4" width="35.77734375" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -706,16 +665,16 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -723,39 +682,39 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -763,59 +722,59 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -826,82 +785,51 @@
         <v>13</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="2" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E3:E4" r:id="rId1" display="http://hospital22.ru/contact" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" display="tel:+73852268494" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
-    <hyperlink ref="D4" r:id="rId3" display="tel:+73852569626" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://link.2gis.com/3.2/aHR0cDovL2JnYjQucnUvCmh0dHBzOi8vczEuYnNzLjJnaXMuY29tL2Jzcy8zClt7ImNvbW1vbiI6eyJmb3JtYXRWZXJzaW9uIjozLCJhcHBWZXJzaW9uIjoiMjAyMi0xMi0wNy0xNCIsInByb2R1Y3QiOjM0LCJhcGlrZXkiOiJydXJiYm4zNDQ2IiwiYXBpa2V5U3RhdHVzIjoxLCJkZXZpY2VMb2NhbGUiOiJydV9SVSIsInVzZXIiOiJkZGNhMGExZi1hNzE0LTQ2OTEtYjQ1ZS02ZmM5ZGUxODAxNGEiLCJpcCI6IjM3LjE5NC4zMS4xMzQiLCJzZXNzaW9uSWQiOiI2NTM5MGE2ZS01NjU0LTRkNTQtODI2Ni01MTJjYTNiMTMwZjIiLCJ1c2VyQWdlbnQiOiJNb3ppbGxhLzUuMCAoV2luZG93cyBOVCAxMC4wOyBXaW42NDsgeDY0KSBBcHBsZVdlYktpdC81MzcuMzYgKEtIVE1MLCBsaWtlIEdlY2tvKSBDaHJvbWUvMTA4LjAuMC4wIFNhZmFyaS81MzcuMzYiLCJkZXZpY2VUeXBlIjoiZGVza3RvcCIsInBlcnNvbmFsRGF0YUNvbGxlY3Rpb25BbGxvd2VkIjp0cnVlfSwidXRjT2Zmc2V0IjoiKzA3OjAwIiwidGFiSWQiOiJjMWU2YzFlNy0xYTZkLTRmYTgtOTM1ZC1jNDAyZTgwZDMxZWEiLCJ0aW1lc3RhbXAiOjE2NzA0MTc3OTg1MjUsInR5cGUiOjIxMSwiZXZlbnRUeXBlIjoiYWN0aW9uIiwiZXZlbnRJZCI6ImNlMmM0OTY1LThlOTktNGY2YS1hMDhiLWUxYmI5YzczNWE2NiIsImFjdGlvblR5cGUiOiJleHRlcm5hbExpbmsiLCJldmVudE9yZGluYWwiOjAsInVpRWxlbWVudCI6eyJuYW1lIjoiY29udGFjdCIsIm93bmVyTmFtZSI6ImNhcmRDb250YWN0cyIsInBvc2l0aW9uIjoxLCJmcmFtZVV1aWQiOiJlNWNjZTA4NS05YjAyLTQ2M2UtYjJjOC0xMzdhM2ExYTJhNDMifSwicGF5bG9hZCI6eyJjb250YWN0Ijp7InZhbHVlIjoiaHR0cDovL2xpbmsuMmdpcy5jb20vMS4yL0JBODE3RERCL29ubGluZS8yMDIyMTIwMS9wcm9qZWN0NC81NjM0NzgyMzQzOTk4MzUvbnVsbC9pdXZocTMzQTI5M0g0SDY5MzVJR0dHMDlqMHg0Z3U0N0c2R0MyN0E2OEFCQTg2Nkh1ZGNuNTY4OUE2RzgzRzZHMUpHSkk3R0puZWpwdXYxOTczNDQ4ODM1NzUxSDFKSjI5P2h0dHA6Ly9iZ2I0LnJ1IiwidHlwZSI6IndlYnNpdGUiLCJwb3NpdGlvbiI6MX0sInBsYWNlSXRlbSI6eyJlbnRpdHkiOnsiaWQiOiI1NjM0NzgyMzQzOTk4MzUiLCJ0eXBlIjoiYnJhbmNoIiwic2VnbWVudEluZm8iOnsiYmFzZUxvY2FsZSI6InJ1X1JVIiwic2VnbWVudElkIjoiNCJ9fSwiZ2VvUG9zaXRpb24iOnsibG9uIjo4My43MTc3MSwibGF0Ijo1My4zNjYwNDZ9LCJoeWJyaWRFbnRpdGllcyI6W3siaWQiOiI1NjM1ODU2MDg1ODU4ODUiLCJ0eXBlIjoiYnVpbGRpbmcifV0sImFkc1NlYXJjaCI6ZmFsc2UsIm1haW5SdWJyaWMiOiIyMjQiLCJpc0RlbGV0ZWQiOmZhbHNlLCJvcmciOiI1NjM0ODY4MjQzMzU5MDIiLCJyZXN1bHRDbGFzcyI6MX0sImV4dGVybmFsTGluayI6eyJmb3JrRXZlbnRPcmRpbmFsIjoxNjIsInBhcmVudFRhYklkIjoiNDc5OWFlODktZWQwMi00ZDUxLWE3N2ItNWY0OTQxODgxZWI2In19fV0%3D" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
-    <hyperlink ref="D5" r:id="rId5" display="tel:+73852403864" xr:uid="{00000000-0004-0000-0600-00000C000000}"/>
-    <hyperlink ref="D6" r:id="rId6" display="tel:+73852591170" xr:uid="{00000000-0004-0000-0600-000011000000}"/>
-    <hyperlink ref="D7" r:id="rId7" display="tel:+73852591170" xr:uid="{00000000-0004-0000-0600-000012000000}"/>
-    <hyperlink ref="E6" r:id="rId8" display="https://link.2gis.com/3.2/aHR0cDovL3d3dy5pc2lkYS1iYXJuYXVsLnJ1LwpodHRwczovL3MxLmJzcy4yZ2lzLmNvbS9ic3MvMwpbeyJjb21tb24iOnsiZm9ybWF0VmVyc2lvbiI6MywiYXBwVmVyc2lvbiI6IjIwMjItMTItMDctMTQiLCJwcm9kdWN0IjozNCwiYXBpa2V5IjoicnVyYmJuMzQ0NiIsImFwaWtleVN0YXR1cyI6MSwiZGV2aWNlTG9jYWxlIjoicnVfUlUiLCJ1c2VyIjoiZGRjYTBhMWYtYTcxNC00NjkxLWI0NWUtNmZjOWRlMTgwMTRhIiwiaXAiOiIzNy4xOTQuMzEuMTM0Iiwic2Vzc2lvbklkIjoiNjUzOTBhNmUtNTY1NC00ZDU0LTgyNjYtNTEyY2EzYjEzMGYyIiwidXNlckFnZW50IjoiTW96aWxsYS81LjAgKFdpbmRvd3MgTlQgMTAuMDsgV2luNjQ7IHg2NCkgQXBwbGVXZWJLaXQvNTM3LjM2IChLSFRNTCwgbGlrZSBHZWNrbykgQ2hyb21lLzEwOC4wLjAuMCBTYWZhcmkvNTM3LjM2IiwiZGV2aWNlVHlwZSI6ImRlc2t0b3AiLCJwZXJzb25hbERhdGFDb2xsZWN0aW9uQWxsb3dlZCI6dHJ1ZX0sInV0Y09mZnNldCI6IiswNzowMCIsInRhYklkIjoiNjU0ZjgxMDAtNjYwYS00OTk1LTk5MmYtOWE4OWVhZmQwOTBmIiwidGltZXN0YW1wIjoxNjcwNDE5MjUwNzUyLCJ0eXBlIjoyMTEsImV2ZW50VHlwZSI6ImFjdGlvbiIsImV2ZW50SWQiOiIwMDdjN2IwOC0zNzA1LTQ0YmItYTdmZS01ZWE5YTdiMjg5Y2QiLCJhY3Rpb25UeXBlIjoiZXh0ZXJuYWxMaW5rIiwiZXZlbnRPcmRpbmFsIjowLCJ1aUVsZW1lbnQiOnsibmFtZSI6ImNvbnRhY3QiLCJvd25lck5hbWUiOiJjYXJkQ29udGFjdHMiLCJwb3NpdGlvbiI6MSwiZnJhbWVVdWlkIjoiMmUyNWJiMjItMmViYy00MWI5LTg5NDYtNzg3OThlYWJlM2U2In0sInBheWxvYWQiOnsiY29udGFjdCI6eyJ2YWx1ZSI6Imh0dHA6Ly9saW5rLjJnaXMuY29tLzEuMi8wREY3NUFENi9vbmxpbmUvMjAyMjEyMDEvcHJvamVjdDQvNTYzNDc4MjM0NDk3ODU3L251bGwvbXA5d3J4M0EyOTNINEg2OTM1SUdHRzA2aGYyQjRxNDdHNkdDMjdBODM0Qjg4ODhIdWRjbjU2QTQ0OEc4NUc2RzFKR0pJN0dKRGx1bXV2MTk3MzQ0ODgzNTc2MkgxSkoyQT9odHRwOi8vd3d3LmlzaWRhLWJhcm5hdWwucnUiLCJ0eXBlIjoid2Vic2l0ZSIsInBvc2l0aW9uIjoxfSwicGxhY2VJdGVtIjp7ImVudGl0eSI6eyJpZCI6IjU2MzQ3ODIzNDQ5Nzg1NyIsInR5cGUiOiJicmFuY2giLCJzZWdtZW50SW5mbyI6eyJiYXNlTG9jYWxlIjoicnVfUlUiLCJzZWdtZW50SWQiOiI0In19LCJnZW9Qb3NpdGlvbiI6eyJsb24iOjgzLjc3MTM0NywibGF0Ijo1My4zMzQ1NTF9LCJhZHNTZWFyY2giOmZhbHNlLCJtYWluUnVicmljIjoiNDUyMSIsImlzRGVsZXRlZCI6ZmFsc2UsIm9yZyI6IjU2MzQ4NjgyNDQxNDAyNyIsInJlc3VsdENsYXNzIjoxfSwiZXh0ZXJuYWxMaW5rIjp7ImZvcmtFdmVudE9yZGluYWwiOjIwNCwicGFyZW50VGFiSWQiOiI0Nzk5YWU4OS1lZDAyLTRkNTEtYTc3Yi01ZjQ5NDE4ODFlYjYifX19XQ%3D%3D" xr:uid="{00000000-0004-0000-0600-000013000000}"/>
-    <hyperlink ref="E7" r:id="rId9" display="https://link.2gis.com/3.2/aHR0cDovL3d3dy5pc2lkYS1iYXJuYXVsLnJ1LwpodHRwczovL3MxLmJzcy4yZ2lzLmNvbS9ic3MvMwpbeyJjb21tb24iOnsiZm9ybWF0VmVyc2lvbiI6MywiYXBwVmVyc2lvbiI6IjIwMjItMTItMDctMTQiLCJwcm9kdWN0IjozNCwiYXBpa2V5IjoicnVyYmJuMzQ0NiIsImFwaWtleVN0YXR1cyI6MSwiZGV2aWNlTG9jYWxlIjoicnVfUlUiLCJ1c2VyIjoiZGRjYTBhMWYtYTcxNC00NjkxLWI0NWUtNmZjOWRlMTgwMTRhIiwiaXAiOiIzNy4xOTQuMzEuMTM0Iiwic2Vzc2lvbklkIjoiNjUzOTBhNmUtNTY1NC00ZDU0LTgyNjYtNTEyY2EzYjEzMGYyIiwidXNlckFnZW50IjoiTW96aWxsYS81LjAgKFdpbmRvd3MgTlQgMTAuMDsgV2luNjQ7IHg2NCkgQXBwbGVXZWJLaXQvNTM3LjM2IChLSFRNTCwgbGlrZSBHZWNrbykgQ2hyb21lLzEwOC4wLjAuMCBTYWZhcmkvNTM3LjM2IiwiZGV2aWNlVHlwZSI6ImRlc2t0b3AiLCJwZXJzb25hbERhdGFDb2xsZWN0aW9uQWxsb3dlZCI6dHJ1ZX0sInV0Y09mZnNldCI6IiswNzowMCIsInRhYklkIjoiNjU0ZjgxMDAtNjYwYS00OTk1LTk5MmYtOWE4OWVhZmQwOTBmIiwidGltZXN0YW1wIjoxNjcwNDE5MjUwNzUyLCJ0eXBlIjoyMTEsImV2ZW50VHlwZSI6ImFjdGlvbiIsImV2ZW50SWQiOiIwMDdjN2IwOC0zNzA1LTQ0YmItYTdmZS01ZWE5YTdiMjg5Y2QiLCJhY3Rpb25UeXBlIjoiZXh0ZXJuYWxMaW5rIiwiZXZlbnRPcmRpbmFsIjowLCJ1aUVsZW1lbnQiOnsibmFtZSI6ImNvbnRhY3QiLCJvd25lck5hbWUiOiJjYXJkQ29udGFjdHMiLCJwb3NpdGlvbiI6MSwiZnJhbWVVdWlkIjoiMmUyNWJiMjItMmViYy00MWI5LTg5NDYtNzg3OThlYWJlM2U2In0sInBheWxvYWQiOnsiY29udGFjdCI6eyJ2YWx1ZSI6Imh0dHA6Ly9saW5rLjJnaXMuY29tLzEuMi8wREY3NUFENi9vbmxpbmUvMjAyMjEyMDEvcHJvamVjdDQvNTYzNDc4MjM0NDk3ODU3L251bGwvbXA5d3J4M0EyOTNINEg2OTM1SUdHRzA2aGYyQjRxNDdHNkdDMjdBODM0Qjg4ODhIdWRjbjU2QTQ0OEc4NUc2RzFKR0pJN0dKRGx1bXV2MTk3MzQ0ODgzNTc2MkgxSkoyQT9odHRwOi8vd3d3LmlzaWRhLWJhcm5hdWwucnUiLCJ0eXBlIjoid2Vic2l0ZSIsInBvc2l0aW9uIjoxfSwicGxhY2VJdGVtIjp7ImVudGl0eSI6eyJpZCI6IjU2MzQ3ODIzNDQ5Nzg1NyIsInR5cGUiOiJicmFuY2giLCJzZWdtZW50SW5mbyI6eyJiYXNlTG9jYWxlIjoicnVfUlUiLCJzZWdtZW50SWQiOiI0In19LCJnZW9Qb3NpdGlvbiI6eyJsb24iOjgzLjc3MTM0NywibGF0Ijo1My4zMzQ1NTF9LCJhZHNTZWFyY2giOmZhbHNlLCJtYWluUnVicmljIjoiNDUyMSIsImlzRGVsZXRlZCI6ZmFsc2UsIm9yZyI6IjU2MzQ4NjgyNDQxNDAyNyIsInJlc3VsdENsYXNzIjoxfSwiZXh0ZXJuYWxMaW5rIjp7ImZvcmtFdmVudE9yZGluYWwiOjIwNCwicGFyZW50VGFiSWQiOiI0Nzk5YWU4OS1lZDAyLTRkNTEtYTc3Yi01ZjQ5NDE4ODFlYjYifX19XQ%3D%3D" xr:uid="{00000000-0004-0000-0600-000014000000}"/>
-    <hyperlink ref="D8" r:id="rId10" display="tel:+73852689856" xr:uid="{00000000-0004-0000-0600-000019000000}"/>
-    <hyperlink ref="E8" r:id="rId11" display="https://link.2gis.com/3.2/aHR0cDovL2FsdC1ob3NwaXRhbC5ydS8KaHR0cHM6Ly9zMS5ic3MuMmdpcy5jb20vYnNzLzMKW3siY29tbW9uIjp7ImZvcm1hdFZlcnNpb24iOjMsImFwcFZlcnNpb24iOiIyMDIyLTEyLTA3LTE0IiwicHJvZHVjdCI6MzQsImFwaWtleSI6InJ1cmJibjM0NDYiLCJhcGlrZXlTdGF0dXMiOjEsImRldmljZUxvY2FsZSI6InJ1X1JVIiwidXNlciI6ImRkY2EwYTFmLWE3MTQtNDY5MS1iNDVlLTZmYzlkZTE4MDE0YSIsImlwIjoiMzcuMTk0LjMxLjEzNCIsInNlc3Npb25JZCI6IjY1MzkwYTZlLTU2NTQtNGQ1NC04MjY2LTUxMmNhM2IxMzBmMiIsInVzZXJBZ2VudCI6Ik1vemlsbGEvNS4wIChXaW5kb3dzIE5UIDEwLjA7IFdpbjY0OyB4NjQpIEFwcGxlV2ViS2l0LzUzNy4zNiAoS0hUTUwsIGxpa2UgR2Vja28pIENocm9tZS8xMDguMC4wLjAgU2FmYXJpLzUzNy4zNiIsImRldmljZVR5cGUiOiJkZXNrdG9wIiwicGVyc29uYWxEYXRhQ29sbGVjdGlvbkFsbG93ZWQiOnRydWV9LCJ1dGNPZmZzZXQiOiIrMDc6MDAiLCJ0YWJJZCI6IjVhMjk2NTBkLTllMjYtNDVhZC04MDA1LWRmNTFmMGVlMjVmZCIsInRpbWVzdGFtcCI6MTY3MDQyMTE4OTQ1NywidHlwZSI6MjExLCJldmVudFR5cGUiOiJhY3Rpb24iLCJldmVudElkIjoiZGMzZTM5MWQtMzQ1My00YjAzLTgyYmEtYTU1MDgzZTQzNzQ0IiwiYWN0aW9uVHlwZSI6ImV4dGVybmFsTGluayIsImV2ZW50T3JkaW5hbCI6MCwidWlFbGVtZW50Ijp7Im5hbWUiOiJjb250YWN0Iiwib3duZXJOYW1lIjoiY2FyZENvbnRhY3RzIiwicG9zaXRpb24iOjEsImZyYW1lVXVpZCI6IjE0NTRjM2FlLWViNjgtNDVjZi1iYWI3LTA4Njc4Mzg5OWE5NCJ9LCJwYXlsb2FkIjp7ImNvbnRhY3QiOnsidmFsdWUiOiJodHRwOi8vbGluay4yZ2lzLmNvbS8xLjIvMzYxQ0NFMEYvb25saW5lLzIwMjIxMjAxL3Byb2plY3Q0LzU2MzQ3ODIzNDQwMTE1NS9udWxsL2c5ZmZtbjNBMjkzSDRINjkzNUlHR0cwOTVzamtoODQ3RzZHQzI3QUEyOTIyMTg2SHVkY241NjIzOTdHODRHNkcxSkdKSTdHSmxoZDR1djE5NzM0NTg4MzU3NjFIMUpKMmM%2FaHR0cDovL2FsdC1ob3NwaXRhbC5ydSIsInR5cGUiOiJ3ZWJzaXRlIiwicG9zaXRpb24iOjF9LCJwbGFjZUl0ZW0iOnsiZW50aXR5Ijp7ImlkIjoiNTYzNDc4MjM0NDAxMTU1IiwidHlwZSI6ImJyYW5jaCIsInNlZ21lbnRJbmZvIjp7ImJhc2VMb2NhbGUiOiJydV9SVSIsInNlZ21lbnRJZCI6IjQifX0sImdlb1Bvc2l0aW9uIjp7ImxvbiI6ODMuNzU2MjI4LCJsYXQiOjUzLjMwNjkzfSwiaHlicmlkRW50aXRpZXMiOlt7ImlkIjoiNTYzNTg1NjA4NTg1MDc2IiwidHlwZSI6ImJ1aWxkaW5nIn1dLCJhZHNTZWFyY2giOmZhbHNlLCJtYWluUnVicmljIjoiMjAxIiwiaXNEZWxldGVkIjpmYWxzZSwib3JnIjoiNTYzNDg2ODI0MzM1MzgyIiwicmVzdWx0Q2xhc3MiOjF9LCJleHRlcm5hbExpbmsiOnsiZm9ya0V2ZW50T3JkaW5hbCI6NDQxLCJwYXJlbnRUYWJJZCI6IjQ3OTlhZTg5LWVkMDItNGQ1MS1hNzdiLTVmNDk0MTg4MWViNiJ9fX1d" xr:uid="{00000000-0004-0000-0600-00001A000000}"/>
-    <hyperlink ref="D9" r:id="rId12" display="tel:+73852560356" xr:uid="{00000000-0004-0000-0600-00001F000000}"/>
-    <hyperlink ref="E9" r:id="rId13" display="https://link.2gis.com/3.2/aHR0cDovL3pkcmF2Z29yb2QyMi5ydS8KaHR0cHM6Ly9zMS5ic3MuMmdpcy5jb20vYnNzLzMKW3siY29tbW9uIjp7ImZvcm1hdFZlcnNpb24iOjMsImFwcFZlcnNpb24iOiIyMDIyLTEyLTA3LTE0IiwicHJvZHVjdCI6MzQsImFwaWtleSI6InJ1cmJibjM0NDYiLCJhcGlrZXlTdGF0dXMiOjEsImRldmljZUxvY2FsZSI6InJ1X1JVIiwidXNlciI6ImRkY2EwYTFmLWE3MTQtNDY5MS1iNDVlLTZmYzlkZTE4MDE0YSIsImlwIjoiMzcuMTk0LjMxLjEzNCIsInNlc3Npb25JZCI6IjY1MzkwYTZlLTU2NTQtNGQ1NC04MjY2LTUxMmNhM2IxMzBmMiIsInVzZXJBZ2VudCI6Ik1vemlsbGEvNS4wIChXaW5kb3dzIE5UIDEwLjA7IFdpbjY0OyB4NjQpIEFwcGxlV2ViS2l0LzUzNy4zNiAoS0hUTUwsIGxpa2UgR2Vja28pIENocm9tZS8xMDguMC4wLjAgU2FmYXJpLzUzNy4zNiIsImRldmljZVR5cGUiOiJkZXNrdG9wIiwicGVyc29uYWxEYXRhQ29sbGVjdGlvbkFsbG93ZWQiOnRydWV9LCJ1dGNPZmZzZXQiOiIrMDc6MDAiLCJ0YWJJZCI6ImQwNzY3ZGZmLWZiODgtNGE0Mi1hODNkLTFlNGZhZDY3ZGRjYSIsInRpbWVzdGFtcCI6MTY3MDQyMjQ2Nzk1OSwidHlwZSI6MjExLCJldmVudFR5cGUiOiJhY3Rpb24iLCJldmVudElkIjoiMWI2Y2I2ZTUtYzIzZi00ZWI0LWI3YmYtMmRjYjFkNDk4MDViIiwiYWN0aW9uVHlwZSI6ImV4dGVybmFsTGluayIsImV2ZW50T3JkaW5hbCI6MCwidWlFbGVtZW50Ijp7Im5hbWUiOiJjb250YWN0Iiwib3duZXJOYW1lIjoiY2FyZENvbnRhY3RzIiwicG9zaXRpb24iOjIsImZyYW1lVXVpZCI6ImYyMTViYjRjLWQ2NTUtNDU4ZC05NWQxLTIxY2ZmMjE3MTA3ZiJ9LCJwYXlsb2FkIjp7ImNvbnRhY3QiOnsidmFsdWUiOiJodHRwOi8vbGluay4yZ2lzLmNvbS8xLjIvNTcwMzE4MzEvb25saW5lLzIwMjIxMjAxL3Byb2plY3Q0LzcwMDAwMDAxMDU1MzU2NzU0L251bGwvM2tyaGZuM0EyOTNINEg4MzAxSUdHR0dHejA4bDk0NDdHNkdDMjdCMTU3NzQ1OTg2dWRjbjU2MzY3N0c4NEc2RzFKRzRJSkc3ZXBra3V2MTk3MzQ1MTAxMzM3NUgxSjNIMUEzP2h0dHA6Ly96ZHJhdmdvcm9kMjIucnUiLCJ0eXBlIjoid2Vic2l0ZSIsInBvc2l0aW9uIjoyfSwicGxhY2VJdGVtIjp7ImVudGl0eSI6eyJpZCI6IjcwMDAwMDAxMDU1MzU2NzU0IiwidHlwZSI6ImJyYW5jaCIsInNlZ21lbnRJbmZvIjp7ImJhc2VMb2NhbGUiOiJydV9SVSIsInNlZ21lbnRJZCI6IjQifX0sImdlb1Bvc2l0aW9uIjp7ImxvbiI6ODMuNzc1MzM1LCJsYXQiOjUzLjMzNzM4Mn0sImFkc1NlYXJjaCI6ZmFsc2UsIm1haW5SdWJyaWMiOiI0NTIxIiwiaXNEZWxldGVkIjpmYWxzZSwib3JnIjoiNzAwMDAwMDEwNTU3ODA3MTYiLCJyZXN1bHRDbGFzcyI6MX0sImV4dGVybmFsTGluayI6eyJmb3JrRXZlbnRPcmRpbmFsIjo1NTQsInBhcmVudFRhYklkIjoiNDc5OWFlODktZWQwMi00ZDUxLWE3N2ItNWY0OTQxODgxZWI2In19fV0%3D" xr:uid="{00000000-0004-0000-0600-000020000000}"/>
-    <hyperlink ref="D10" r:id="rId14" display="tel:+73852535535" xr:uid="{00000000-0004-0000-0600-000024000000}"/>
-    <hyperlink ref="D2" r:id="rId15" display="tel:+73852222250" xr:uid="{00000000-0004-0000-0600-000040000000}"/>
-    <hyperlink ref="E2" r:id="rId16" display="https://link.2gis.com/3.2/aHR0cDovL3d3dy5hbWNjbGluaWMucnUvCmh0dHBzOi8vczEuYnNzLjJnaXMuY29tL2Jzcy8zClt7ImNvbW1vbiI6eyJmb3JtYXRWZXJzaW9uIjozLCJhcHBWZXJzaW9uIjoiMjAyMi0xMi0wNy0xNCIsInByb2R1Y3QiOjM0LCJhcGlrZXkiOiJydXJiYm4zNDQ2IiwiYXBpa2V5U3RhdHVzIjoxLCJkZXZpY2VMb2NhbGUiOiJydV9SVSIsInVzZXIiOiJkZGNhMGExZi1hNzE0LTQ2OTEtYjQ1ZS02ZmM5ZGUxODAxNGEiLCJpcCI6IjM3LjE5NC4zMS4xMzQiLCJzZXNzaW9uSWQiOiI2NTM5MGE2ZS01NjU0LTRkNTQtODI2Ni01MTJjYTNiMTMwZjIiLCJ1c2VyQWdlbnQiOiJNb3ppbGxhLzUuMCAoV2luZG93cyBOVCAxMC4wOyBXaW42NDsgeDY0KSBBcHBsZVdlYktpdC81MzcuMzYgKEtIVE1MLCBsaWtlIEdlY2tvKSBDaHJvbWUvMTA4LjAuMC4wIFNhZmFyaS81MzcuMzYiLCJkZXZpY2VUeXBlIjoiZGVza3RvcCIsInBlcnNvbmFsRGF0YUNvbGxlY3Rpb25BbGxvd2VkIjp0cnVlfSwidXRjT2Zmc2V0IjoiKzA3OjAwIiwidGFiSWQiOiI2NmNlMTZiNy1lMmJiLTQzODItYmE1OC1hN2UxYmZhNDNmYjkiLCJ0aW1lc3RhbXAiOjE2NzA0MjQ4MDkzMDUsInR5cGUiOjIxMSwiZXZlbnRUeXBlIjoiYWN0aW9uIiwiZXZlbnRJZCI6IjI5MzI5N2RkLTI5YzktNDBlMi05MTMzLTIzZjllMzAxNTczYSIsImFjdGlvblR5cGUiOiJleHRlcm5hbExpbmsiLCJldmVudE9yZGluYWwiOjAsInVpRWxlbWVudCI6eyJuYW1lIjoiY29udGFjdCIsIm93bmVyTmFtZSI6ImNhcmRDb250YWN0cyIsInBvc2l0aW9uIjoxLCJmcmFtZVV1aWQiOiJlNDJhMTdiYS01YWMyLTQ1MWYtODE4Zi0zNTVhZGFhMzNjNDUifSwicGF5bG9hZCI6eyJjb250YWN0Ijp7InZhbHVlIjoiaHR0cDovL2xpbmsuMmdpcy5jb20vMS4yLzNBNDlCNkFDL29ubGluZS8yMDIyMTIwMS9wcm9qZWN0NC81NjM0NzkyMzQ4MjE2OTYvbnVsbC92ckE4Y20zQTI5M0g0SDY5MzVJR0dHMDlyM2Z5Znc0N0c2R0MyN0IzOTE0MjZDN0h1ZGNuNTY1QTFCRzg4RzZHMUpHSkk3R0p5NHN4dXYxOTczNDU4OTM1N0ExSDFKSjI3P2h0dHA6Ly93d3cuYW1jY2xpbmljLnJ1IiwidHlwZSI6IndlYnNpdGUiLCJwb3NpdGlvbiI6MX0sInBsYWNlSXRlbSI6eyJlbnRpdHkiOnsiaWQiOiI1NjM0NzkyMzQ4MjE2OTYiLCJ0eXBlIjoiYnJhbmNoIiwic2VnbWVudEluZm8iOnsiYmFzZUxvY2FsZSI6InJ1X1JVIiwic2VnbWVudElkIjoiNCJ9fSwiZ2VvUG9zaXRpb24iOnsibG9uIjo4My43MTQxOTcsImxhdCI6NTMuMzY2MTMzfSwiaHlicmlkRW50aXRpZXMiOlt7ImlkIjoiNTYzNTg1NjA4NTkxOTAyIiwidHlwZSI6ImJ1aWxkaW5nIn1dLCJhZHNTZWFyY2giOmZhbHNlLCJtYWluUnVicmljIjoiNDUyMSIsImlzRGVsZXRlZCI6ZmFsc2UsIm9yZyI6IjU2MzQ4NzkyNDYwMDI4MSIsInJlc3VsdENsYXNzIjoxfSwiZXh0ZXJuYWxMaW5rIjp7ImZvcmtFdmVudE9yZGluYWwiOjYyLCJwYXJlbnRUYWJJZCI6IjdjZjY2NGIzLTJhN2EtNGM4NC05YjE2LTRkZTA2MzQ3MWRlZSJ9fX1d" xr:uid="{00000000-0004-0000-0600-000041000000}"/>
+    <hyperlink ref="E3" r:id="rId1" display="http://hospital22.ru/contact"/>
+    <hyperlink ref="D3" r:id="rId2" display="tel:+73852268494"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://link.2gis.com/3.2/aHR0cDovL2JnYjQucnUvCmh0dHBzOi8vczEuYnNzLjJnaXMuY29tL2Jzcy8zClt7ImNvbW1vbiI6eyJmb3JtYXRWZXJzaW9uIjozLCJhcHBWZXJzaW9uIjoiMjAyMi0xMi0wNy0xNCIsInByb2R1Y3QiOjM0LCJhcGlrZXkiOiJydXJiYm4zNDQ2IiwiYXBpa2V5U3RhdHVzIjoxLCJkZXZpY2VMb2NhbGUiOiJydV9SVSIsInVzZXIiOiJkZGNhMGExZi1hNzE0LTQ2OTEtYjQ1ZS02ZmM5ZGUxODAxNGEiLCJpcCI6IjM3LjE5NC4zMS4xMzQiLCJzZXNzaW9uSWQiOiI2NTM5MGE2ZS01NjU0LTRkNTQtODI2Ni01MTJjYTNiMTMwZjIiLCJ1c2VyQWdlbnQiOiJNb3ppbGxhLzUuMCAoV2luZG93cyBOVCAxMC4wOyBXaW42NDsgeDY0KSBBcHBsZVdlYktpdC81MzcuMzYgKEtIVE1MLCBsaWtlIEdlY2tvKSBDaHJvbWUvMTA4LjAuMC4wIFNhZmFyaS81MzcuMzYiLCJkZXZpY2VUeXBlIjoiZGVza3RvcCIsInBlcnNvbmFsRGF0YUNvbGxlY3Rpb25BbGxvd2VkIjp0cnVlfSwidXRjT2Zmc2V0IjoiKzA3OjAwIiwidGFiSWQiOiJjMWU2YzFlNy0xYTZkLTRmYTgtOTM1ZC1jNDAyZTgwZDMxZWEiLCJ0aW1lc3RhbXAiOjE2NzA0MTc3OTg1MjUsInR5cGUiOjIxMSwiZXZlbnRUeXBlIjoiYWN0aW9uIiwiZXZlbnRJZCI6ImNlMmM0OTY1LThlOTktNGY2YS1hMDhiLWUxYmI5YzczNWE2NiIsImFjdGlvblR5cGUiOiJleHRlcm5hbExpbmsiLCJldmVudE9yZGluYWwiOjAsInVpRWxlbWVudCI6eyJuYW1lIjoiY29udGFjdCIsIm93bmVyTmFtZSI6ImNhcmRDb250YWN0cyIsInBvc2l0aW9uIjoxLCJmcmFtZVV1aWQiOiJlNWNjZTA4NS05YjAyLTQ2M2UtYjJjOC0xMzdhM2ExYTJhNDMifSwicGF5bG9hZCI6eyJjb250YWN0Ijp7InZhbHVlIjoiaHR0cDovL2xpbmsuMmdpcy5jb20vMS4yL0JBODE3RERCL29ubGluZS8yMDIyMTIwMS9wcm9qZWN0NC81NjM0NzgyMzQzOTk4MzUvbnVsbC9pdXZocTMzQTI5M0g0SDY5MzVJR0dHMDlqMHg0Z3U0N0c2R0MyN0E2OEFCQTg2Nkh1ZGNuNTY4OUE2RzgzRzZHMUpHSkk3R0puZWpwdXYxOTczNDQ4ODM1NzUxSDFKSjI5P2h0dHA6Ly9iZ2I0LnJ1IiwidHlwZSI6IndlYnNpdGUiLCJwb3NpdGlvbiI6MX0sInBsYWNlSXRlbSI6eyJlbnRpdHkiOnsiaWQiOiI1NjM0NzgyMzQzOTk4MzUiLCJ0eXBlIjoiYnJhbmNoIiwic2VnbWVudEluZm8iOnsiYmFzZUxvY2FsZSI6InJ1X1JVIiwic2VnbWVudElkIjoiNCJ9fSwiZ2VvUG9zaXRpb24iOnsibG9uIjo4My43MTc3MSwibGF0Ijo1My4zNjYwNDZ9LCJoeWJyaWRFbnRpdGllcyI6W3siaWQiOiI1NjM1ODU2MDg1ODU4ODUiLCJ0eXBlIjoiYnVpbGRpbmcifV0sImFkc1NlYXJjaCI6ZmFsc2UsIm1haW5SdWJyaWMiOiIyMjQiLCJpc0RlbGV0ZWQiOmZhbHNlLCJvcmciOiI1NjM0ODY4MjQzMzU5MDIiLCJyZXN1bHRDbGFzcyI6MX0sImV4dGVybmFsTGluayI6eyJmb3JrRXZlbnRPcmRpbmFsIjoxNjIsInBhcmVudFRhYklkIjoiNDc5OWFlODktZWQwMi00ZDUxLWE3N2ItNWY0OTQxODgxZWI2In19fV0%3D"/>
+    <hyperlink ref="D4" r:id="rId4" display="tel:+73852403864"/>
+    <hyperlink ref="D5" r:id="rId5" display="tel:+73852591170"/>
+    <hyperlink ref="E5" r:id="rId6" display="https://link.2gis.com/3.2/aHR0cDovL3d3dy5pc2lkYS1iYXJuYXVsLnJ1LwpodHRwczovL3MxLmJzcy4yZ2lzLmNvbS9ic3MvMwpbeyJjb21tb24iOnsiZm9ybWF0VmVyc2lvbiI6MywiYXBwVmVyc2lvbiI6IjIwMjItMTItMDctMTQiLCJwcm9kdWN0IjozNCwiYXBpa2V5IjoicnVyYmJuMzQ0NiIsImFwaWtleVN0YXR1cyI6MSwiZGV2aWNlTG9jYWxlIjoicnVfUlUiLCJ1c2VyIjoiZGRjYTBhMWYtYTcxNC00NjkxLWI0NWUtNmZjOWRlMTgwMTRhIiwiaXAiOiIzNy4xOTQuMzEuMTM0Iiwic2Vzc2lvbklkIjoiNjUzOTBhNmUtNTY1NC00ZDU0LTgyNjYtNTEyY2EzYjEzMGYyIiwidXNlckFnZW50IjoiTW96aWxsYS81LjAgKFdpbmRvd3MgTlQgMTAuMDsgV2luNjQ7IHg2NCkgQXBwbGVXZWJLaXQvNTM3LjM2IChLSFRNTCwgbGlrZSBHZWNrbykgQ2hyb21lLzEwOC4wLjAuMCBTYWZhcmkvNTM3LjM2IiwiZGV2aWNlVHlwZSI6ImRlc2t0b3AiLCJwZXJzb25hbERhdGFDb2xsZWN0aW9uQWxsb3dlZCI6dHJ1ZX0sInV0Y09mZnNldCI6IiswNzowMCIsInRhYklkIjoiNjU0ZjgxMDAtNjYwYS00OTk1LTk5MmYtOWE4OWVhZmQwOTBmIiwidGltZXN0YW1wIjoxNjcwNDE5MjUwNzUyLCJ0eXBlIjoyMTEsImV2ZW50VHlwZSI6ImFjdGlvbiIsImV2ZW50SWQiOiIwMDdjN2IwOC0zNzA1LTQ0YmItYTdmZS01ZWE5YTdiMjg5Y2QiLCJhY3Rpb25UeXBlIjoiZXh0ZXJuYWxMaW5rIiwiZXZlbnRPcmRpbmFsIjowLCJ1aUVsZW1lbnQiOnsibmFtZSI6ImNvbnRhY3QiLCJvd25lck5hbWUiOiJjYXJkQ29udGFjdHMiLCJwb3NpdGlvbiI6MSwiZnJhbWVVdWlkIjoiMmUyNWJiMjItMmViYy00MWI5LTg5NDYtNzg3OThlYWJlM2U2In0sInBheWxvYWQiOnsiY29udGFjdCI6eyJ2YWx1ZSI6Imh0dHA6Ly9saW5rLjJnaXMuY29tLzEuMi8wREY3NUFENi9vbmxpbmUvMjAyMjEyMDEvcHJvamVjdDQvNTYzNDc4MjM0NDk3ODU3L251bGwvbXA5d3J4M0EyOTNINEg2OTM1SUdHRzA2aGYyQjRxNDdHNkdDMjdBODM0Qjg4ODhIdWRjbjU2QTQ0OEc4NUc2RzFKR0pJN0dKRGx1bXV2MTk3MzQ0ODgzNTc2MkgxSkoyQT9odHRwOi8vd3d3LmlzaWRhLWJhcm5hdWwucnUiLCJ0eXBlIjoid2Vic2l0ZSIsInBvc2l0aW9uIjoxfSwicGxhY2VJdGVtIjp7ImVudGl0eSI6eyJpZCI6IjU2MzQ3ODIzNDQ5Nzg1NyIsInR5cGUiOiJicmFuY2giLCJzZWdtZW50SW5mbyI6eyJiYXNlTG9jYWxlIjoicnVfUlUiLCJzZWdtZW50SWQiOiI0In19LCJnZW9Qb3NpdGlvbiI6eyJsb24iOjgzLjc3MTM0NywibGF0Ijo1My4zMzQ1NTF9LCJhZHNTZWFyY2giOmZhbHNlLCJtYWluUnVicmljIjoiNDUyMSIsImlzRGVsZXRlZCI6ZmFsc2UsIm9yZyI6IjU2MzQ4NjgyNDQxNDAyNyIsInJlc3VsdENsYXNzIjoxfSwiZXh0ZXJuYWxMaW5rIjp7ImZvcmtFdmVudE9yZGluYWwiOjIwNCwicGFyZW50VGFiSWQiOiI0Nzk5YWU4OS1lZDAyLTRkNTEtYTc3Yi01ZjQ5NDE4ODFlYjYifX19XQ%3D%3D"/>
+    <hyperlink ref="D6" r:id="rId7" display="tel:+73852689856"/>
+    <hyperlink ref="E6" r:id="rId8" display="https://link.2gis.com/3.2/aHR0cDovL2FsdC1ob3NwaXRhbC5ydS8KaHR0cHM6Ly9zMS5ic3MuMmdpcy5jb20vYnNzLzMKW3siY29tbW9uIjp7ImZvcm1hdFZlcnNpb24iOjMsImFwcFZlcnNpb24iOiIyMDIyLTEyLTA3LTE0IiwicHJvZHVjdCI6MzQsImFwaWtleSI6InJ1cmJibjM0NDYiLCJhcGlrZXlTdGF0dXMiOjEsImRldmljZUxvY2FsZSI6InJ1X1JVIiwidXNlciI6ImRkY2EwYTFmLWE3MTQtNDY5MS1iNDVlLTZmYzlkZTE4MDE0YSIsImlwIjoiMzcuMTk0LjMxLjEzNCIsInNlc3Npb25JZCI6IjY1MzkwYTZlLTU2NTQtNGQ1NC04MjY2LTUxMmNhM2IxMzBmMiIsInVzZXJBZ2VudCI6Ik1vemlsbGEvNS4wIChXaW5kb3dzIE5UIDEwLjA7IFdpbjY0OyB4NjQpIEFwcGxlV2ViS2l0LzUzNy4zNiAoS0hUTUwsIGxpa2UgR2Vja28pIENocm9tZS8xMDguMC4wLjAgU2FmYXJpLzUzNy4zNiIsImRldmljZVR5cGUiOiJkZXNrdG9wIiwicGVyc29uYWxEYXRhQ29sbGVjdGlvbkFsbG93ZWQiOnRydWV9LCJ1dGNPZmZzZXQiOiIrMDc6MDAiLCJ0YWJJZCI6IjVhMjk2NTBkLTllMjYtNDVhZC04MDA1LWRmNTFmMGVlMjVmZCIsInRpbWVzdGFtcCI6MTY3MDQyMTE4OTQ1NywidHlwZSI6MjExLCJldmVudFR5cGUiOiJhY3Rpb24iLCJldmVudElkIjoiZGMzZTM5MWQtMzQ1My00YjAzLTgyYmEtYTU1MDgzZTQzNzQ0IiwiYWN0aW9uVHlwZSI6ImV4dGVybmFsTGluayIsImV2ZW50T3JkaW5hbCI6MCwidWlFbGVtZW50Ijp7Im5hbWUiOiJjb250YWN0Iiwib3duZXJOYW1lIjoiY2FyZENvbnRhY3RzIiwicG9zaXRpb24iOjEsImZyYW1lVXVpZCI6IjE0NTRjM2FlLWViNjgtNDVjZi1iYWI3LTA4Njc4Mzg5OWE5NCJ9LCJwYXlsb2FkIjp7ImNvbnRhY3QiOnsidmFsdWUiOiJodHRwOi8vbGluay4yZ2lzLmNvbS8xLjIvMzYxQ0NFMEYvb25saW5lLzIwMjIxMjAxL3Byb2plY3Q0LzU2MzQ3ODIzNDQwMTE1NS9udWxsL2c5ZmZtbjNBMjkzSDRINjkzNUlHR0cwOTVzamtoODQ3RzZHQzI3QUEyOTIyMTg2SHVkY241NjIzOTdHODRHNkcxSkdKSTdHSmxoZDR1djE5NzM0NTg4MzU3NjFIMUpKMmM%2FaHR0cDovL2FsdC1ob3NwaXRhbC5ydSIsInR5cGUiOiJ3ZWJzaXRlIiwicG9zaXRpb24iOjF9LCJwbGFjZUl0ZW0iOnsiZW50aXR5Ijp7ImlkIjoiNTYzNDc4MjM0NDAxMTU1IiwidHlwZSI6ImJyYW5jaCIsInNlZ21lbnRJbmZvIjp7ImJhc2VMb2NhbGUiOiJydV9SVSIsInNlZ21lbnRJZCI6IjQifX0sImdlb1Bvc2l0aW9uIjp7ImxvbiI6ODMuNzU2MjI4LCJsYXQiOjUzLjMwNjkzfSwiaHlicmlkRW50aXRpZXMiOlt7ImlkIjoiNTYzNTg1NjA4NTg1MDc2IiwidHlwZSI6ImJ1aWxkaW5nIn1dLCJhZHNTZWFyY2giOmZhbHNlLCJtYWluUnVicmljIjoiMjAxIiwiaXNEZWxldGVkIjpmYWxzZSwib3JnIjoiNTYzNDg2ODI0MzM1MzgyIiwicmVzdWx0Q2xhc3MiOjF9LCJleHRlcm5hbExpbmsiOnsiZm9ya0V2ZW50T3JkaW5hbCI6NDQxLCJwYXJlbnRUYWJJZCI6IjQ3OTlhZTg5LWVkMDItNGQ1MS1hNzdiLTVmNDk0MTg4MWViNiJ9fX1d"/>
+    <hyperlink ref="D7" r:id="rId9" display="tel:+73852560356"/>
+    <hyperlink ref="E7" r:id="rId10" display="https://link.2gis.com/3.2/aHR0cDovL3pkcmF2Z29yb2QyMi5ydS8KaHR0cHM6Ly9zMS5ic3MuMmdpcy5jb20vYnNzLzMKW3siY29tbW9uIjp7ImZvcm1hdFZlcnNpb24iOjMsImFwcFZlcnNpb24iOiIyMDIyLTEyLTA3LTE0IiwicHJvZHVjdCI6MzQsImFwaWtleSI6InJ1cmJibjM0NDYiLCJhcGlrZXlTdGF0dXMiOjEsImRldmljZUxvY2FsZSI6InJ1X1JVIiwidXNlciI6ImRkY2EwYTFmLWE3MTQtNDY5MS1iNDVlLTZmYzlkZTE4MDE0YSIsImlwIjoiMzcuMTk0LjMxLjEzNCIsInNlc3Npb25JZCI6IjY1MzkwYTZlLTU2NTQtNGQ1NC04MjY2LTUxMmNhM2IxMzBmMiIsInVzZXJBZ2VudCI6Ik1vemlsbGEvNS4wIChXaW5kb3dzIE5UIDEwLjA7IFdpbjY0OyB4NjQpIEFwcGxlV2ViS2l0LzUzNy4zNiAoS0hUTUwsIGxpa2UgR2Vja28pIENocm9tZS8xMDguMC4wLjAgU2FmYXJpLzUzNy4zNiIsImRldmljZVR5cGUiOiJkZXNrdG9wIiwicGVyc29uYWxEYXRhQ29sbGVjdGlvbkFsbG93ZWQiOnRydWV9LCJ1dGNPZmZzZXQiOiIrMDc6MDAiLCJ0YWJJZCI6ImQwNzY3ZGZmLWZiODgtNGE0Mi1hODNkLTFlNGZhZDY3ZGRjYSIsInRpbWVzdGFtcCI6MTY3MDQyMjQ2Nzk1OSwidHlwZSI6MjExLCJldmVudFR5cGUiOiJhY3Rpb24iLCJldmVudElkIjoiMWI2Y2I2ZTUtYzIzZi00ZWI0LWI3YmYtMmRjYjFkNDk4MDViIiwiYWN0aW9uVHlwZSI6ImV4dGVybmFsTGluayIsImV2ZW50T3JkaW5hbCI6MCwidWlFbGVtZW50Ijp7Im5hbWUiOiJjb250YWN0Iiwib3duZXJOYW1lIjoiY2FyZENvbnRhY3RzIiwicG9zaXRpb24iOjIsImZyYW1lVXVpZCI6ImYyMTViYjRjLWQ2NTUtNDU4ZC05NWQxLTIxY2ZmMjE3MTA3ZiJ9LCJwYXlsb2FkIjp7ImNvbnRhY3QiOnsidmFsdWUiOiJodHRwOi8vbGluay4yZ2lzLmNvbS8xLjIvNTcwMzE4MzEvb25saW5lLzIwMjIxMjAxL3Byb2plY3Q0LzcwMDAwMDAxMDU1MzU2NzU0L251bGwvM2tyaGZuM0EyOTNINEg4MzAxSUdHR0dHejA4bDk0NDdHNkdDMjdCMTU3NzQ1OTg2dWRjbjU2MzY3N0c4NEc2RzFKRzRJSkc3ZXBra3V2MTk3MzQ1MTAxMzM3NUgxSjNIMUEzP2h0dHA6Ly96ZHJhdmdvcm9kMjIucnUiLCJ0eXBlIjoid2Vic2l0ZSIsInBvc2l0aW9uIjoyfSwicGxhY2VJdGVtIjp7ImVudGl0eSI6eyJpZCI6IjcwMDAwMDAxMDU1MzU2NzU0IiwidHlwZSI6ImJyYW5jaCIsInNlZ21lbnRJbmZvIjp7ImJhc2VMb2NhbGUiOiJydV9SVSIsInNlZ21lbnRJZCI6IjQifX0sImdlb1Bvc2l0aW9uIjp7ImxvbiI6ODMuNzc1MzM1LCJsYXQiOjUzLjMzNzM4Mn0sImFkc1NlYXJjaCI6ZmFsc2UsIm1haW5SdWJyaWMiOiI0NTIxIiwiaXNEZWxldGVkIjpmYWxzZSwib3JnIjoiNzAwMDAwMDEwNTU3ODA3MTYiLCJyZXN1bHRDbGFzcyI6MX0sImV4dGVybmFsTGluayI6eyJmb3JrRXZlbnRPcmRpbmFsIjo1NTQsInBhcmVudFRhYklkIjoiNDc5OWFlODktZWQwMi00ZDUxLWE3N2ItNWY0OTQxODgxZWI2In19fV0%3D"/>
+    <hyperlink ref="D8" r:id="rId11" display="tel:+73852535535"/>
+    <hyperlink ref="D2" r:id="rId12" display="tel:+73852222250"/>
+    <hyperlink ref="E2" r:id="rId13" display="https://link.2gis.com/3.2/aHR0cDovL3d3dy5hbWNjbGluaWMucnUvCmh0dHBzOi8vczEuYnNzLjJnaXMuY29tL2Jzcy8zClt7ImNvbW1vbiI6eyJmb3JtYXRWZXJzaW9uIjozLCJhcHBWZXJzaW9uIjoiMjAyMi0xMi0wNy0xNCIsInByb2R1Y3QiOjM0LCJhcGlrZXkiOiJydXJiYm4zNDQ2IiwiYXBpa2V5U3RhdHVzIjoxLCJkZXZpY2VMb2NhbGUiOiJydV9SVSIsInVzZXIiOiJkZGNhMGExZi1hNzE0LTQ2OTEtYjQ1ZS02ZmM5ZGUxODAxNGEiLCJpcCI6IjM3LjE5NC4zMS4xMzQiLCJzZXNzaW9uSWQiOiI2NTM5MGE2ZS01NjU0LTRkNTQtODI2Ni01MTJjYTNiMTMwZjIiLCJ1c2VyQWdlbnQiOiJNb3ppbGxhLzUuMCAoV2luZG93cyBOVCAxMC4wOyBXaW42NDsgeDY0KSBBcHBsZVdlYktpdC81MzcuMzYgKEtIVE1MLCBsaWtlIEdlY2tvKSBDaHJvbWUvMTA4LjAuMC4wIFNhZmFyaS81MzcuMzYiLCJkZXZpY2VUeXBlIjoiZGVza3RvcCIsInBlcnNvbmFsRGF0YUNvbGxlY3Rpb25BbGxvd2VkIjp0cnVlfSwidXRjT2Zmc2V0IjoiKzA3OjAwIiwidGFiSWQiOiI2NmNlMTZiNy1lMmJiLTQzODItYmE1OC1hN2UxYmZhNDNmYjkiLCJ0aW1lc3RhbXAiOjE2NzA0MjQ4MDkzMDUsInR5cGUiOjIxMSwiZXZlbnRUeXBlIjoiYWN0aW9uIiwiZXZlbnRJZCI6IjI5MzI5N2RkLTI5YzktNDBlMi05MTMzLTIzZjllMzAxNTczYSIsImFjdGlvblR5cGUiOiJleHRlcm5hbExpbmsiLCJldmVudE9yZGluYWwiOjAsInVpRWxlbWVudCI6eyJuYW1lIjoiY29udGFjdCIsIm93bmVyTmFtZSI6ImNhcmRDb250YWN0cyIsInBvc2l0aW9uIjoxLCJmcmFtZVV1aWQiOiJlNDJhMTdiYS01YWMyLTQ1MWYtODE4Zi0zNTVhZGFhMzNjNDUifSwicGF5bG9hZCI6eyJjb250YWN0Ijp7InZhbHVlIjoiaHR0cDovL2xpbmsuMmdpcy5jb20vMS4yLzNBNDlCNkFDL29ubGluZS8yMDIyMTIwMS9wcm9qZWN0NC81NjM0NzkyMzQ4MjE2OTYvbnVsbC92ckE4Y20zQTI5M0g0SDY5MzVJR0dHMDlyM2Z5Znc0N0c2R0MyN0IzOTE0MjZDN0h1ZGNuNTY1QTFCRzg4RzZHMUpHSkk3R0p5NHN4dXYxOTczNDU4OTM1N0ExSDFKSjI3P2h0dHA6Ly93d3cuYW1jY2xpbmljLnJ1IiwidHlwZSI6IndlYnNpdGUiLCJwb3NpdGlvbiI6MX0sInBsYWNlSXRlbSI6eyJlbnRpdHkiOnsiaWQiOiI1NjM0NzkyMzQ4MjE2OTYiLCJ0eXBlIjoiYnJhbmNoIiwic2VnbWVudEluZm8iOnsiYmFzZUxvY2FsZSI6InJ1X1JVIiwic2VnbWVudElkIjoiNCJ9fSwiZ2VvUG9zaXRpb24iOnsibG9uIjo4My43MTQxOTcsImxhdCI6NTMuMzY2MTMzfSwiaHlicmlkRW50aXRpZXMiOlt7ImlkIjoiNTYzNTg1NjA4NTkxOTAyIiwidHlwZSI6ImJ1aWxkaW5nIn1dLCJhZHNTZWFyY2giOmZhbHNlLCJtYWluUnVicmljIjoiNDUyMSIsImlzRGVsZXRlZCI6ZmFsc2UsIm9yZyI6IjU2MzQ4NzkyNDYwMDI4MSIsInJlc3VsdENsYXNzIjoxfSwiZXh0ZXJuYWxMaW5rIjp7ImZvcmtFdmVudE9yZGluYWwiOjYyLCJwYXJlbnRUYWJJZCI6IjdjZjY2NGIzLTJhN2EtNGM4NC05YjE2LTRkZTA2MzQ3MWRlZSJ9fX1d"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
-  <drawing r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <drawing r:id="rId15"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="b8a301b8-fba3-4a56-9ee3-0e2775d83ffb">6MRAV4MPJ4WK-605773199-208</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="b8a301b8-fba3-4a56-9ee3-0e2775d83ffb">
+      <Url>https://cbrportal.cbr.ru/dep/ad/_layouts/15/DocIdRedir.aspx?ID=6MRAV4MPJ4WK-605773199-208</Url>
+      <Description>6MRAV4MPJ4WK-605773199-208</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x010100E2008D7E4742AA41887FDC2E79A7A762" ma:contentTypeVersion="1" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="f9aaf2498e151e4c742fbf1c352ca431">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b8a301b8-fba3-4a56-9ee3-0e2775d83ffb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c95ad6c5f32494a945af1673268ec41" ns2:_="">
     <xsd:import namespace="b8a301b8-fba3-4a56-9ee3-0e2775d83ffb"/>
@@ -1046,28 +974,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="b8a301b8-fba3-4a56-9ee3-0e2775d83ffb">6MRAV4MPJ4WK-605773199-208</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="b8a301b8-fba3-4a56-9ee3-0e2775d83ffb">
-      <Url>https://cbrportal.cbr.ru/dep/ad/_layouts/15/DocIdRedir.aspx?ID=6MRAV4MPJ4WK-605773199-208</Url>
-      <Description>6MRAV4MPJ4WK-605773199-208</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -1117,7 +1024,32 @@
 </spe:Receivers>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A25D7794-8982-464B-8F1D-0C3EC06EF16B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b8a301b8-fba3-4a56-9ee3-0e2775d83ffb"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E71F0884-BE63-4CF6-875E-8F62E6BEA50D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1135,34 +1067,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A25D7794-8982-464B-8F1D-0C3EC06EF16B}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{804AC0A1-4F33-4181-8C23-B0A36819A154}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b8a301b8-fba3-4a56-9ee3-0e2775d83ffb"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28D65DD3-3A63-45BF-A897-2BF76555CF21}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{804AC0A1-4F33-4181-8C23-B0A36819A154}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>